--- a/BOMs/Bill of Materials (Version 1.0).xlsx
+++ b/BOMs/Bill of Materials (Version 1.0).xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
   <si>
-    <t>Bill Of Materials for: Team 4 LED20</t>
+    <t>Bill Of Materials for: Team 01 LED20</t>
   </si>
   <si>
     <t>Last modified: 2024-11-11</t>
